--- a/tests/data/output/一级测试用例-13001_result.xlsx
+++ b/tests/data/output/一级测试用例-13001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,62 +369,57 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>用例编号</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>用例编号</t>
+          <t>测试模块</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>测试模块</t>
+          <t>用例标题</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>用例标题</t>
+          <t>table_main</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>table_main</t>
+          <t>table_main_subA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>table_main_subA</t>
+          <t>table_main_subB</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>table_main_subB</t>
+          <t>预期测试结果</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>预期测试结果</t>
+          <t>测试用例key</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>测试用例key</t>
+          <t>实际测试结果</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>实际测试结果</t>
+          <t>是否通过</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>是否通过</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>keyValue</t>
+          <t>key_value_main</t>
         </is>
       </c>
     </row>
@@ -433,26 +428,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sms_reg_cnt</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -461,30 +453,24 @@
 info_sms_loan_platform.platform_code[1]="BANK"</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt=2</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sms_reg_cnt=2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{"user_name":"苗凤兰","id_card_no":"450300193807011434","phone":"15691244221"}</t>
+          <t>{"user_name":"符婷婷","id_card_no":"610500193209152019","phone":"13230688210"}</t>
         </is>
       </c>
     </row>
@@ -493,51 +479,42 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>sms_reg_cnt</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve">info_sms.sms_id;
 info_sms.create_time="2019-07-02"
 </t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt=0</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sms_reg_cnt=0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{"user_name":"佴龙","id_card_no":"341021199311221540","phone":"13382799669"}</t>
+          <t>{"user_name":"谢桂兰","id_card_no":"640425200012286566","phone":"15116555158"}</t>
         </is>
       </c>
     </row>
@@ -546,26 +523,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_bank_3m</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_bank_3m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -574,30 +548,24 @@
 info_sms_loan_platform.platform_type[1]="BANK"</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_bank_3m=1</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_bank_3m=1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>{"user_name":"李成","id_card_no":"330206199310015045","phone":"15920236569"}</t>
+          <t>{"user_name":"屈旭","id_card_no":"451400199002198901","phone":"13661314336"}</t>
         </is>
       </c>
     </row>
@@ -606,26 +574,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C5" t="n">
-        <v>66</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_bank_3m</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_bank_3m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -634,30 +599,24 @@
 info_sms_loan_platform.platform_type[1]="NON_BANK"</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_bank_3m=1</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_bank_3m=1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>{"user_name":"丰秀荣","id_card_no":"140121197603142260","phone":"13155751384"}</t>
+          <t>{"user_name":"韩红梅","id_card_no":"50011519891206706X","phone":"15962354798"}</t>
         </is>
       </c>
     </row>
@@ -666,26 +625,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_other_3m</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_other_3m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -694,30 +650,24 @@
 info_sms_loan_platform.platform_type[1]="NON_BANK"</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_other_3m=1</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_other_3m=1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>{"user_name":"元敏","id_card_no":"320105199607250595","phone":"15175987271"}</t>
+          <t>{"user_name":"官鹏","id_card_no":"64018119371005799X","phone":"14513889310"}</t>
         </is>
       </c>
     </row>
@@ -726,26 +676,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C7" t="n">
-        <v>68</v>
-      </c>
-      <c r="D7" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_other_3m</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_other_3m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -756,30 +703,24 @@
 info_sms_loan_platform.platform_type[2]="NON_BANK"</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_other_3m=2</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_other_3m=2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>{"user_name":"逄杨","id_card_no":"110117198901318361","phone":"15833185235"}</t>
+          <t>{"user_name":"糜文","id_card_no":"510682199911021936","phone":"18644946411"}</t>
         </is>
       </c>
     </row>
@@ -788,55 +729,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C8" t="n">
-        <v>69</v>
-      </c>
-      <c r="D8" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>sms_app_cnt</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sms_app_cnt</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t>info_sms_loan_apply.sms_id;
 info_sms_loan_apply.apply_amount[0]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>sms_app_cnt=1</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sms_app_cnt=1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>{"user_name":"从洁","id_card_no":"130434194407043743","phone":"18763678471"}</t>
+          <t>{"user_name":"郗秀芳","id_card_no":"510401194201212189","phone":"18656174209"}</t>
         </is>
       </c>
     </row>
@@ -845,50 +777,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C9" t="n">
-        <v>70</v>
-      </c>
-      <c r="D9" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sms_app_cnt</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sms_app_cnt</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>sms_app_cnt=0</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sms_app_cnt=0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>{"user_name":"翁红梅","id_card_no":"450331195702077393","phone":"15351105883"}</t>
+          <t>{"user_name":"空雷","id_card_no":"420822199008234962","phone":"18159465658"}</t>
         </is>
       </c>
     </row>
@@ -897,26 +820,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C10" t="n">
-        <v>71</v>
-      </c>
-      <c r="D10" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>sms_max_apply</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sms_max_apply</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
         <is>
           <t>info_sms_loan_apply.sms_id;
 info_sms_loan_apply.apply_amount[0]="0W～0.2W";
@@ -924,30 +844,24 @@
 info_sms_loan_apply.apply_amount[2]="1W～3W"</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>sms_max_apply=4</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sms_max_apply=4</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>4</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>{"user_name":"西宁","id_card_no":"141101198305112821","phone":"15693204058"}</t>
+          <t>{"user_name":"申桂兰","id_card_no":"130111195409111088","phone":"15321883312"}</t>
         </is>
       </c>
     </row>
@@ -956,26 +870,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C11" t="n">
-        <v>72</v>
-      </c>
-      <c r="D11" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>sms_max_apply</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sms_max_apply</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
         <is>
           <t>info_sms_loan_apply.sms_id;
 info_sms_loan_apply.apply_amount[0]="1W～3W";
@@ -983,30 +894,24 @@
 info_sms_loan_apply.apply_amount[2]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>sms_max_apply=6</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sms_max_apply=6</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>6</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>{"user_name":"张丽丽","id_card_no":"130727197906260837","phone":"18596046702"}</t>
+          <t>{"user_name":"归秀华","id_card_no":"430105198203096035","phone":"18532127744"}</t>
         </is>
       </c>
     </row>
@@ -1015,55 +920,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C12" t="n">
-        <v>73</v>
-      </c>
-      <c r="D12" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>sms_loan_cnt</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sms_loan_cnt</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t>info_sms_loan.sms_id;
 info_sms_loan.loan_amount[0]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>sms_loan_cnt=1</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sms_loan_cnt=1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>{"user_name":"却玉珍","id_card_no":"510303199802128273","phone":"15827859022"}</t>
+          <t>{"user_name":"逯娜","id_card_no":"640121195504295076","phone":"18266678438"}</t>
         </is>
       </c>
     </row>
@@ -1072,50 +968,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C13" t="n">
-        <v>74</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>sms_loan_cnt</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sms_loan_cnt</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>sms_loan_cnt=0</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sms_loan_cnt=0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>{"user_name":"裴晶","id_card_no":"211002197807186905","phone":"15567142460"}</t>
+          <t>{"user_name":"空桂芝","id_card_no":"140602195504132816","phone":"18074791658"}</t>
         </is>
       </c>
     </row>
@@ -1124,26 +1011,23 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C14" t="n">
-        <v>75</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>sms_max_loan</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sms_max_loan</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>info_sms_loan.sms_id;
 info_sms_loan.loan_amount[0]="0W～0.2W";
@@ -1151,30 +1035,24 @@
 info_sms_loan.loan_amount[2]="5W～10W"</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>sms_max_loan=6</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sms_max_loan=6</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>6</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>{"user_name":"晏秀英","id_card_no":"451027195208231463","phone":"13982436603"}</t>
+          <t>{"user_name":"松淑英","id_card_no":"652223193312143345","phone":"14563500282"}</t>
         </is>
       </c>
     </row>
@@ -1183,26 +1061,23 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C15" t="n">
-        <v>76</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>sms_max_loan</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sms_max_loan</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
         <is>
           <t>info_sms_loan.sms_id;
 info_sms_loan.loan_amount[0]="3W～5W";
@@ -1210,30 +1085,24 @@
 info_sms_loan.loan_amount[2]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>sms_max_loan=5</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sms_max_loan=5</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>5</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>{"user_name":"隆霞","id_card_no":"500105195211172813","phone":"13206894180"}</t>
+          <t>{"user_name":"桂红","id_card_no":"445321194207058502","phone":"18091787296"}</t>
         </is>
       </c>
     </row>
@@ -1242,56 +1111,47 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C16" t="n">
-        <v>77</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>sms_reject_cnt</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sms_reject_cnt</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
         <is>
           <t>info_sms_loan_reject.sms_id;
 info_sms_loan_reject.platform_type[0]="";
 info_sms_loan_reject.platform_type[1]=""</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>sms_reject_cnt=2</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sms_reject_cnt=2</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>{"user_name":"伯艳","id_card_no":"513432196908071339","phone":"15764713837"}</t>
+          <t>{"user_name":"单玉","id_card_no":"450800195408024939","phone":"18831555291"}</t>
         </is>
       </c>
     </row>
@@ -1300,50 +1160,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="C17" t="n">
-        <v>78</v>
-      </c>
-      <c r="D17" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>sms_reject_cnt</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sms_reject_cnt</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>sms_reject_cnt=0</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sms_reject_cnt=0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>{"user_name":"尚涛","id_card_no":"532504198507162311","phone":"13357957515"}</t>
+          <t>{"user_name":"娄莉","id_card_no":"620721196501017349","phone":"13920865135"}</t>
         </is>
       </c>
     </row>
@@ -1352,56 +1203,47 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C18" t="n">
-        <v>79</v>
-      </c>
-      <c r="D18" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>sms_overdue_cnt</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sms_overdue_cnt</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.platform_code[0]="";
 info_sms_overdue_platform.platform_code[1]=""</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>sms_overdue_cnt=2</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sms_overdue_cnt=2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>2</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>{"user_name":"薄洋","id_card_no":"341302199108084728","phone":"13524033682"}</t>
+          <t>{"user_name":"杭秀华","id_card_no":"130427197201310228","phone":"18616171086"}</t>
         </is>
       </c>
     </row>
@@ -1410,50 +1252,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C19" t="n">
-        <v>80</v>
-      </c>
-      <c r="D19" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>sms_overdue_cnt</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sms_overdue_cnt</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>sms_overdue_cnt=0</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sms_overdue_cnt=0</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>{"user_name":"爱鹏","id_card_no":"371122197507150105","phone":"15954768422"}</t>
+          <t>{"user_name":"俟林","id_card_no":"371581199709251626","phone":"18529277621"}</t>
         </is>
       </c>
     </row>
@@ -1462,56 +1295,47 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C20" t="n">
-        <v>81</v>
-      </c>
-      <c r="D20" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>sms_max_overdue</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sms_max_overdue</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_money[0]="0W～0.2W";
 info_sms_overdue_platform.overdue_money[1]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>sms_max_overdue=1</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sms_max_overdue=1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>{"user_name":"葛平","id_card_no":"140522198302082367","phone":"18275322514"}</t>
+          <t>{"user_name":"霍淑珍","id_card_no":"451424199802215870","phone":"15803908621"}</t>
         </is>
       </c>
     </row>
@@ -1520,50 +1344,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C21" t="n">
-        <v>82</v>
-      </c>
-      <c r="D21" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sms_max_overdue</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sms_max_overdue</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>sms_max_overdue=0</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sms_max_overdue=0</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>{"user_name":"双志强","id_card_no":"44028219391122770X","phone":"13739229881"}</t>
+          <t>{"user_name":"容淑珍","id_card_no":"429000194507081941","phone":"13818441444"}</t>
         </is>
       </c>
     </row>
@@ -1572,56 +1387,47 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C22" t="n">
-        <v>83</v>
-      </c>
-      <c r="D22" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sms_owe_cnt</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="";
 info_sms_debt.platform_code[1]=""</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt=2</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sms_owe_cnt=2</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>2</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>{"user_name":"广佳","id_card_no":"513424198403062110","phone":"18888422472"}</t>
+          <t>{"user_name":"空凤兰","id_card_no":"230223196912314703","phone":"13716862821"}</t>
         </is>
       </c>
     </row>
@@ -1630,50 +1436,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C23" t="n">
-        <v>84</v>
-      </c>
-      <c r="D23" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sms_owe_cnt</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt=0</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sms_owe_cnt=0</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>{"user_name":"辛淑珍","id_card_no":"230601196102056304","phone":"13592752991"}</t>
+          <t>{"user_name":"里洋","id_card_no":"441523200012308389","phone":"13325656267"}</t>
         </is>
       </c>
     </row>
@@ -1682,56 +1479,47 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C24" t="n">
-        <v>85</v>
-      </c>
-      <c r="D24" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>sms_max_owe</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sms_max_owe</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.debt_money[0]="3W～5W";
 info_sms_debt.debt_money[1]="10W以上"</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>sms_max_owe=7</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sms_max_owe=7</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>7</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>{"user_name":"谷琴","id_card_no":"340225199210253987","phone":"18125875756"}</t>
+          <t>{"user_name":"生红梅","id_card_no":"14040219840329558X","phone":"14576780573"}</t>
         </is>
       </c>
     </row>
@@ -1740,50 +1528,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C25" t="n">
-        <v>86</v>
-      </c>
-      <c r="D25" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>sms_max_owe</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sms_max_owe</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>sms_max_owe=0</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sms_max_owe=0</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>{"user_name":"章莹","id_card_no":"420900197206192191","phone":"14566983370"}</t>
+          <t>{"user_name":"聂静","id_card_no":"361128195104309692","phone":"14540538667"}</t>
         </is>
       </c>
     </row>
@@ -1792,61 +1571,52 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="C26" t="n">
-        <v>87</v>
-      </c>
-      <c r="D26" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6m</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2019-05-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6m=1</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6m=1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>{"user_name":"万玉珍","id_card_no":"14012319920625915X","phone":"15265651152"}</t>
+          <t>{"user_name":"邵浩","id_card_no":"511325194310305129","phone":"13052429438"}</t>
         </is>
       </c>
     </row>
@@ -1855,61 +1625,52 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C27" t="n">
-        <v>88</v>
-      </c>
-      <c r="D27" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6m</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6m=0</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6m=0</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>{"user_name":"辕红","id_card_no":"430521192912195719","phone":"15742241720"}</t>
+          <t>{"user_name":"史琳","id_card_no":"370306194804285483","phone":"18768281393"}</t>
         </is>
       </c>
     </row>
@@ -1918,56 +1679,47 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C28" t="n">
-        <v>89</v>
-      </c>
-      <c r="D28" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6m</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6m=0</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6m=0</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>{"user_name":"窦明","id_card_no":"330103199204300550","phone":"13256606942"}</t>
+          <t>{"user_name":"于丹丹","id_card_no":"430281195003156388","phone":"18202927188"}</t>
         </is>
       </c>
     </row>
@@ -1976,61 +1728,52 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C29" t="n">
-        <v>90</v>
-      </c>
-      <c r="D29" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6_12m</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6_12m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2019-05-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6_12m=0</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6_12m=0</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>{"user_name":"百俊","id_card_no":"130901196501047563","phone":"14584289600"}</t>
+          <t>{"user_name":"东红","id_card_no":"610500196108043925","phone":"18610599462"}</t>
         </is>
       </c>
     </row>
@@ -2039,61 +1782,52 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C30" t="n">
-        <v>91</v>
-      </c>
-      <c r="D30" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6_12m</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6_12m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6_12m=1</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6_12m=1</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>{"user_name":"劳建华","id_card_no":"320902199801117549","phone":"18295891915"}</t>
+          <t>{"user_name":"陆佳","id_card_no":"330602196708035057","phone":"13629413315"}</t>
         </is>
       </c>
     </row>
@@ -2102,56 +1836,47 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C31" t="n">
-        <v>92</v>
-      </c>
-      <c r="D31" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6_12m</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6_12m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6_12m=0</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6_12m=0</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>{"user_name":"臧旭","id_card_no":"510184199112155749","phone":"18016976853"}</t>
+          <t>{"user_name":"班淑华","id_card_no":"360821194502095683","phone":"15167486062"}</t>
         </is>
       </c>
     </row>
@@ -2160,62 +1885,53 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C32" t="n">
-        <v>93</v>
-      </c>
-      <c r="D32" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>sms_max_owe_6m</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sms_max_owe_6m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2019-05-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201";
 info_sms_debt.debt_money[0]="1W～3W"</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>sms_max_owe_6m=4</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sms_max_owe_6m=4</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>4</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>{"user_name":"和丽丽","id_card_no":"230125196004235994","phone":"15543801127"}</t>
+          <t>{"user_name":"齐燕","id_card_no":"37070019961211634X","phone":"13299851637"}</t>
         </is>
       </c>
     </row>
@@ -2224,62 +1940,53 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C33" t="n">
-        <v>94</v>
-      </c>
-      <c r="D33" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>sms_max_owe_6m</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sms_max_owe_6m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201";
 info_sms_debt.debt_money[0]="1W～3W"</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>sms_max_owe_6m=0</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sms_max_owe_6m=0</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>{"user_name":"商云","id_card_no":"42102219760510067X","phone":"18776661743"}</t>
+          <t>{"user_name":"红亮","id_card_no":"152222197601164197","phone":"13786534920"}</t>
         </is>
       </c>
     </row>
@@ -2288,56 +1995,47 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C34" t="n">
-        <v>95</v>
-      </c>
-      <c r="D34" t="n">
-        <v>13001</v>
+        <v>13001</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>sms_max_owe_6m</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sms_max_owe_6m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>sms_max_owe_6m=0</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sms_max_owe_6m=0</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>{"user_name":"费海燕","id_card_no":"341300193407258740","phone":"13637003284"}</t>
+          <t>{"user_name":"华桂芳","id_card_no":"230227197210068093","phone":"18278884910"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-13001_result.xlsx
+++ b/tests/data/output/一级测试用例-13001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,55 +369,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>用例编号</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>测试模块</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>用例标题</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>table_main</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>table_main_subA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>table_main_subB</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>预期测试结果</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>测试用例key</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>实际测试结果</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>是否通过</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>key_value_main</t>
         </is>
@@ -428,23 +433,26 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>63</v>
       </c>
-      <c r="C2" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>sms_reg_cnt</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -453,24 +461,30 @@
 info_sms_loan_platform.platform_code[1]="BANK"</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>sms_reg_cnt=2</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"符婷婷","id_card_no":"610500193209152019","phone":"13230688210"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>{"user_name":"权旭","id_card_no":"430700198005030458","phone":"18234922429"}</t>
         </is>
       </c>
     </row>
@@ -479,42 +493,50 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>64</v>
       </c>
-      <c r="C3" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>sms_reg_cnt</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">info_sms.sms_id;
-info_sms.create_time="2019-07-02"
-</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>sms_reg_cnt=0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"谢桂兰","id_card_no":"640425200012286566","phone":"15116555158"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{"user_name":"竺伟","id_card_no":"411100197411147694","phone":"14559807656"}</t>
         </is>
       </c>
     </row>
@@ -523,23 +545,26 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>65</v>
       </c>
-      <c r="C4" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>sms_reg_cnt_bank_3m</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -548,24 +573,30 @@
 info_sms_loan_platform.platform_type[1]="BANK"</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>sms_reg_cnt_bank_3m=1</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"user_name":"屈旭","id_card_no":"451400199002198901","phone":"13661314336"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>{"user_name":"蔡杰","id_card_no":"210303198209198574","phone":"13556981036"}</t>
         </is>
       </c>
     </row>
@@ -574,23 +605,26 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
         <v>66</v>
       </c>
-      <c r="C5" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>sms_reg_cnt_bank_3m</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -599,24 +633,30 @@
 info_sms_loan_platform.platform_type[1]="NON_BANK"</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>sms_reg_cnt_bank_3m=1</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"user_name":"韩红梅","id_card_no":"50011519891206706X","phone":"15962354798"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>{"user_name":"都丹丹","id_card_no":"231025196505023151","phone":"14538477348"}</t>
         </is>
       </c>
     </row>
@@ -625,23 +665,26 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>67</v>
       </c>
-      <c r="C6" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>sms_reg_cnt_other_3m</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -650,24 +693,30 @@
 info_sms_loan_platform.platform_type[1]="NON_BANK"</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>sms_reg_cnt_other_3m=1</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"user_name":"官鹏","id_card_no":"64018119371005799X","phone":"14513889310"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>{"user_name":"杜红霞","id_card_no":"630223197603245483","phone":"14746190438"}</t>
         </is>
       </c>
     </row>
@@ -676,23 +725,26 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>68</v>
       </c>
-      <c r="C7" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>sms_reg_cnt_other_3m</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -703,24 +755,30 @@
 info_sms_loan_platform.platform_type[2]="NON_BANK"</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>sms_reg_cnt_other_3m=2</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"user_name":"糜文","id_card_no":"510682199911021936","phone":"18644946411"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>{"user_name":"羊冬梅","id_card_no":"530800196103058577","phone":"13527423130"}</t>
         </is>
       </c>
     </row>
@@ -729,46 +787,55 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>69</v>
       </c>
-      <c r="C8" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>sms_app_cnt</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>info_sms_loan_apply.sms_id;
 info_sms_loan_apply.apply_amount[0]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>sms_app_cnt=1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"user_name":"郗秀芳","id_card_no":"510401194201212189","phone":"18656174209"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>{"user_name":"咸红霞","id_card_no":"14072919451011456X","phone":"15598032698"}</t>
         </is>
       </c>
     </row>
@@ -777,41 +844,50 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>70</v>
       </c>
-      <c r="C9" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>sms_app_cnt</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>sms_app_cnt=0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"user_name":"空雷","id_card_no":"420822199008234962","phone":"18159465658"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>{"user_name":"钮洋","id_card_no":"130731198206077563","phone":"13545458067"}</t>
         </is>
       </c>
     </row>
@@ -820,23 +896,26 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
         <v>71</v>
       </c>
-      <c r="C10" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>sms_max_apply</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>info_sms_loan_apply.sms_id;
 info_sms_loan_apply.apply_amount[0]="0W～0.2W";
@@ -844,24 +923,30 @@
 info_sms_loan_apply.apply_amount[2]="1W～3W"</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>sms_max_apply=4</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"user_name":"申桂兰","id_card_no":"130111195409111088","phone":"15321883312"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>{"user_name":"柯娟","id_card_no":"42282819940615647X","phone":"14702546013"}</t>
         </is>
       </c>
     </row>
@@ -870,23 +955,26 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
         <v>72</v>
       </c>
-      <c r="C11" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>sms_max_apply</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>info_sms_loan_apply.sms_id;
 info_sms_loan_apply.apply_amount[0]="1W～3W";
@@ -894,24 +982,30 @@
 info_sms_loan_apply.apply_amount[2]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>sms_max_apply=6</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>6</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{"user_name":"归秀华","id_card_no":"430105198203096035","phone":"18532127744"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>{"user_name":"寇建军","id_card_no":"220400194010092721","phone":"13017001546"}</t>
         </is>
       </c>
     </row>
@@ -920,46 +1014,55 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
         <v>73</v>
       </c>
-      <c r="C12" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>sms_loan_cnt</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>info_sms_loan.sms_id;
 info_sms_loan.loan_amount[0]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>sms_loan_cnt=1</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{"user_name":"逯娜","id_card_no":"640121195504295076","phone":"18266678438"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>{"user_name":"常东","id_card_no":"610627199112292106","phone":"13772297675"}</t>
         </is>
       </c>
     </row>
@@ -968,41 +1071,50 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
         <v>74</v>
       </c>
-      <c r="C13" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>sms_loan_cnt</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>sms_loan_cnt=0</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{"user_name":"空桂芝","id_card_no":"140602195504132816","phone":"18074791658"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>{"user_name":"贺畅","id_card_no":"620924193701086636","phone":"13105445411"}</t>
         </is>
       </c>
     </row>
@@ -1011,23 +1123,26 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
         <v>75</v>
       </c>
-      <c r="C14" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>sms_max_loan</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>info_sms_loan.sms_id;
 info_sms_loan.loan_amount[0]="0W～0.2W";
@@ -1035,24 +1150,30 @@
 info_sms_loan.loan_amount[2]="5W～10W"</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
         <is>
           <t>sms_max_loan=6</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{"user_name":"松淑英","id_card_no":"652223193312143345","phone":"14563500282"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>{"user_name":"阚洋","id_card_no":"230521200105040024","phone":"13605912495"}</t>
         </is>
       </c>
     </row>
@@ -1061,23 +1182,26 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
         <v>76</v>
       </c>
-      <c r="C15" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>sms_max_loan</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>info_sms_loan.sms_id;
 info_sms_loan.loan_amount[0]="3W～5W";
@@ -1085,24 +1209,30 @@
 info_sms_loan.loan_amount[2]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t>sms_max_loan=5</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>5</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{"user_name":"桂红","id_card_no":"445321194207058502","phone":"18091787296"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>{"user_name":"曾志强","id_card_no":"341021199310115674","phone":"13979913838"}</t>
         </is>
       </c>
     </row>
@@ -1111,47 +1241,56 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
         <v>77</v>
       </c>
-      <c r="C16" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>sms_reject_cnt</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>info_sms_loan_reject.sms_id;
 info_sms_loan_reject.platform_type[0]="";
 info_sms_loan_reject.platform_type[1]=""</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>sms_reject_cnt=2</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{"user_name":"单玉","id_card_no":"450800195408024939","phone":"18831555291"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>{"user_name":"濮桂花","id_card_no":"130434197607278284","phone":"15761324149"}</t>
         </is>
       </c>
     </row>
@@ -1160,41 +1299,50 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
         <v>78</v>
       </c>
-      <c r="C17" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>sms_reject_cnt</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
         <is>
           <t>sms_reject_cnt=0</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{"user_name":"娄莉","id_card_no":"620721196501017349","phone":"13920865135"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>{"user_name":"西楠","id_card_no":"140828196007025971","phone":"15538456266"}</t>
         </is>
       </c>
     </row>
@@ -1203,47 +1351,56 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
         <v>79</v>
       </c>
-      <c r="C18" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>sms_overdue_cnt</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.platform_code[0]="";
 info_sms_overdue_platform.platform_code[1]=""</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>sms_overdue_cnt=2</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>{"user_name":"杭秀华","id_card_no":"130427197201310228","phone":"18616171086"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>{"user_name":"慎艳","id_card_no":"361181197711276483","phone":"18844467160"}</t>
         </is>
       </c>
     </row>
@@ -1252,41 +1409,50 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
         <v>80</v>
       </c>
-      <c r="C19" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>sms_overdue_cnt</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
         <is>
           <t>sms_overdue_cnt=0</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{"user_name":"俟林","id_card_no":"371581199709251626","phone":"18529277621"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>{"user_name":"奚桂花","id_card_no":"350921194302273290","phone":"15710643019"}</t>
         </is>
       </c>
     </row>
@@ -1295,47 +1461,56 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
         <v>81</v>
       </c>
-      <c r="C20" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>sms_max_overdue</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_money[0]="0W～0.2W";
 info_sms_overdue_platform.overdue_money[1]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
         <is>
           <t>sms_max_overdue=1</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{"user_name":"霍淑珍","id_card_no":"451424199802215870","phone":"15803908621"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>{"user_name":"於亮","id_card_no":"340701195810035682","phone":"15530268838"}</t>
         </is>
       </c>
     </row>
@@ -1344,41 +1519,50 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
         <v>82</v>
       </c>
-      <c r="C21" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>sms_max_overdue</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>sms_max_overdue=0</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{"user_name":"容淑珍","id_card_no":"429000194507081941","phone":"13818441444"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>{"user_name":"墨玉珍","id_card_no":"15052219401128937X","phone":"18636784701"}</t>
         </is>
       </c>
     </row>
@@ -1387,47 +1571,56 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
         <v>83</v>
       </c>
-      <c r="C22" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>sms_owe_cnt</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="";
 info_sms_debt.platform_code[1]=""</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>sms_owe_cnt=2</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{"user_name":"空凤兰","id_card_no":"230223196912314703","phone":"13716862821"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>{"user_name":"庞杨","id_card_no":"522634197501021486","phone":"13088418538"}</t>
         </is>
       </c>
     </row>
@@ -1436,41 +1629,50 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
         <v>84</v>
       </c>
-      <c r="C23" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>sms_owe_cnt</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
         <is>
           <t>sms_owe_cnt=0</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{"user_name":"里洋","id_card_no":"441523200012308389","phone":"13325656267"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>{"user_name":"鄢军","id_card_no":"410223198611066091","phone":"15989255702"}</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1681,56 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
         <v>85</v>
       </c>
-      <c r="C24" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>sms_max_owe</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.debt_money[0]="3W～5W";
 info_sms_debt.debt_money[1]="10W以上"</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>sms_max_owe=7</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>7</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>{"user_name":"生红梅","id_card_no":"14040219840329558X","phone":"14576780573"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>{"user_name":"索璐","id_card_no":"420922199711100101","phone":"13960847365"}</t>
         </is>
       </c>
     </row>
@@ -1528,41 +1739,50 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
         <v>86</v>
       </c>
-      <c r="C25" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>sms_max_owe</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
         <is>
           <t>sms_max_owe=0</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{"user_name":"聂静","id_card_no":"361128195104309692","phone":"14540538667"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>{"user_name":"暨磊","id_card_no":"310101194605181098","phone":"14518439428"}</t>
         </is>
       </c>
     </row>
@@ -1571,52 +1791,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
         <v>87</v>
       </c>
-      <c r="C26" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6m</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2019-05-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6m=1</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{"user_name":"邵浩","id_card_no":"511325194310305129","phone":"13052429438"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>{"user_name":"宓丹丹","id_card_no":"420304194903147336","phone":"18010960478"}</t>
         </is>
       </c>
     </row>
@@ -1625,52 +1854,61 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
         <v>88</v>
       </c>
-      <c r="C27" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6m</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6m=0</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>{"user_name":"史琳","id_card_no":"370306194804285483","phone":"18768281393"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>{"user_name":"黎小红","id_card_no":"320621195308236135","phone":"15379310881"}</t>
         </is>
       </c>
     </row>
@@ -1679,47 +1917,56 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
         <v>89</v>
       </c>
-      <c r="C28" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6m</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6m=0</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{"user_name":"于丹丹","id_card_no":"430281195003156388","phone":"18202927188"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>{"user_name":"鲍兰英","id_card_no":"43052319870306005X","phone":"18846324165"}</t>
         </is>
       </c>
     </row>
@@ -1728,52 +1975,61 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
         <v>90</v>
       </c>
-      <c r="C29" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6_12m</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2019-05-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6_12m=0</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>{"user_name":"东红","id_card_no":"610500196108043925","phone":"18610599462"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>{"user_name":"周瑞","id_card_no":"440301195411309238","phone":"18551853804"}</t>
         </is>
       </c>
     </row>
@@ -1782,52 +2038,61 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
         <v>91</v>
       </c>
-      <c r="C30" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6_12m</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6_12m=1</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{"user_name":"陆佳","id_card_no":"330602196708035057","phone":"13629413315"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>{"user_name":"人伟","id_card_no":"341324196511093434","phone":"15638015558"}</t>
         </is>
       </c>
     </row>
@@ -1836,47 +2101,56 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
         <v>92</v>
       </c>
-      <c r="C31" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6_12m</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6_12m=0</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>{"user_name":"班淑华","id_card_no":"360821194502095683","phone":"15167486062"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>{"user_name":"富明","id_card_no":"130500197808285968","phone":"18060422371"}</t>
         </is>
       </c>
     </row>
@@ -1885,53 +2159,62 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
         <v>93</v>
       </c>
-      <c r="C32" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>sms_max_owe_6m</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2019-05-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201";
 info_sms_debt.debt_money[0]="1W～3W"</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>sms_max_owe_6m=4</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>{"user_name":"齐燕","id_card_no":"37070019961211634X","phone":"13299851637"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>{"user_name":"封俊","id_card_no":"210112196004090451","phone":"14734945912"}</t>
         </is>
       </c>
     </row>
@@ -1940,53 +2223,62 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
         <v>94</v>
       </c>
-      <c r="C33" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>sms_max_owe_6m</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201";
 info_sms_debt.debt_money[0]="1W～3W"</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>sms_max_owe_6m=0</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>{"user_name":"红亮","id_card_no":"152222197601164197","phone":"13786534920"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>{"user_name":"法建国","id_card_no":"140822194801021444","phone":"15516509800"}</t>
         </is>
       </c>
     </row>
@@ -1995,47 +2287,56 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
         <v>95</v>
       </c>
-      <c r="C34" t="n">
-        <v>13001</v>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>sms_max_owe_6m</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
         <is>
           <t>sms_max_owe_6m=0</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>{"user_name":"华桂芳","id_card_no":"230227197210068093","phone":"18278884910"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>{"user_name":"马欣","id_card_no":"451121194705196921","phone":"13475005564"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-13001_result.xlsx
+++ b/tests/data/output/一级测试用例-13001_result.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"公金凤","id_card_no":"230304199008095901","phone":"15752664323"}</t>
+          <t>{"user_name":"胥建平","id_card_no":"542222193608112706","phone":"13637057276"}</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"逄丽华","id_card_no":"532624195805213532","phone":"18037226311"}</t>
+          <t>{"user_name":"秋健","id_card_no":"341226193806045206","phone":"15072288580"}</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"禄桂荣","id_card_no":"510524196706260062","phone":"15918718320"}</t>
+          <t>{"user_name":"宫凯","id_card_no":"120110193410201497","phone":"18211280399"}</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"费秀英","id_card_no":"350525193005047894","phone":"18245977568"}</t>
+          <t>{"user_name":"朱峰","id_card_no":"220102193904297568","phone":"18118004719"}</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"汲秀兰","id_card_no":"420101193912220780","phone":"14701801393"}</t>
+          <t>{"user_name":"韩军","id_card_no":"141182195108223623","phone":"13027108543"}</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"农红梅","id_card_no":"230622199412058490","phone":"14513199833"}</t>
+          <t>{"user_name":"常龙","id_card_no":"511922196704159964","phone":"18738859404"}</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"申杰","id_card_no":"420281199003134839","phone":"18658262595"}</t>
+          <t>{"user_name":"轩彬","id_card_no":"230781196902031903","phone":"13894935090"}</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"有龙","id_card_no":"220802196709075320","phone":"15520492293"}</t>
+          <t>{"user_name":"裴博","id_card_no":"431024197309262871","phone":"18720669402"}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"崔建","id_card_no":"421126196906279817","phone":"15107721488"}</t>
+          <t>{"user_name":"武明","id_card_no":"341324193412157400","phone":"18997546483"}</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"靳丽丽","id_card_no":"320115194210035088","phone":"15998827627"}</t>
+          <t>{"user_name":"牟秀荣","id_card_no":"130702196203319423","phone":"15181917321"}</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"能佳","id_card_no":"320305193509281586","phone":"13498570298"}</t>
+          <t>{"user_name":"池金凤","id_card_no":"230706198402245322","phone":"14540644024"}</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"翟秀兰","id_card_no":"130130197703245173","phone":"14522944833"}</t>
+          <t>{"user_name":"宦英","id_card_no":"632822197109192521","phone":"15389902094"}</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"夔瑞","id_card_no":"44180319930622862X","phone":"18289172551"}</t>
+          <t>{"user_name":"史阳","id_card_no":"530901193203184050","phone":"15873213516"}</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"宰红霞","id_card_no":"510922198305145424","phone":"15534934945"}</t>
+          <t>{"user_name":"项欣","id_card_no":"220282199809178493","phone":"15369455625"}</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"侯倩","id_card_no":"510115198809300101","phone":"15866170387"}</t>
+          <t>{"user_name":"桑琳","id_card_no":"53011119960903477X","phone":"15888682433"}</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"富亮","id_card_no":"420300197909229808","phone":"13395104351"}</t>
+          <t>{"user_name":"蓬玉梅","id_card_no":"62122619331118245X","phone":"18509182294"}</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"东玉兰","id_card_no":"620601194410166357","phone":"18879487441"}</t>
+          <t>{"user_name":"酆燕","id_card_no":"510301194807036487","phone":"18766548311"}</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"董桂芝","id_card_no":"411627193501261537","phone":"13838820523"}</t>
+          <t>{"user_name":"容利","id_card_no":"15050219650506385X","phone":"13339224076"}</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"辛丽","id_card_no":"621100195308083936","phone":"15318064689"}</t>
+          <t>{"user_name":"隗春梅","id_card_no":"320000199801243260","phone":"14595536559"}</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"葛飞","id_card_no":"410726195101179910","phone":"15994703762"}</t>
+          <t>{"user_name":"冯丹","id_card_no":"512000199808254445","phone":"13509582811"}</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"牧慧","id_card_no":"421321193807085270","phone":"14794528125"}</t>
+          <t>{"user_name":"长桂花","id_card_no":"230713196711176142","phone":"18255129058"}</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"陆波","id_card_no":"220204197305104468","phone":"15941639554"}</t>
+          <t>{"user_name":"红明","id_card_no":"230921194903182733","phone":"13937150443"}</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"吉建华","id_card_no":"532626198608123630","phone":"18063342992"}</t>
+          <t>{"user_name":"司建","id_card_no":"530721196108088755","phone":"13632591839"}</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"惠平","id_card_no":"320700197902249628","phone":"15167811279"}</t>
+          <t>{"user_name":"况凤英","id_card_no":"511502197705088130","phone":"13777525321"}</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"赏玉梅","id_card_no":"542122197207182124","phone":"13037536582"}</t>
+          <t>{"user_name":"景桂珍","id_card_no":"140521198701300433","phone":"13716995749"}</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"屈秀英","id_card_no":"140402197303291579","phone":"15373153271"}</t>
+          <t>{"user_name":"毋志强","id_card_no":"350300194511094403","phone":"15201131215"}</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"吉玲","id_card_no":"610402195404192792","phone":"18669489870"}</t>
+          <t>{"user_name":"赏丹丹","id_card_no":"410422195004240327","phone":"18583784372"}</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"赵璐","id_card_no":"522300195003058009","phone":"13444647426"}</t>
+          <t>{"user_name":"拓玉梅","id_card_no":"640181198702032488","phone":"14707488223"}</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"俟欢","id_card_no":"440404198505077675","phone":"15367976839"}</t>
+          <t>{"user_name":"易燕","id_card_no":"330683199112122119","phone":"13394514459"}</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"戴丽丽","id_card_no":"130628196005035495","phone":"13000553998"}</t>
+          <t>{"user_name":"伏岩","id_card_no":"130804199509081528","phone":"15972664680"}</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"丰宇","id_card_no":"610831198311177742","phone":"13484221674"}</t>
+          <t>{"user_name":"东鑫","id_card_no":"469029198004112628","phone":"18245770532"}</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"西军","id_card_no":"141026197603080132","phone":"15064331906"}</t>
+          <t>{"user_name":"亢杰","id_card_no":"320829199406097909","phone":"15513257866"}</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"丁琳","id_card_no":"430701194509179203","phone":"18860346081"}</t>
+          <t>{"user_name":"焦强","id_card_no":"520103195401161913","phone":"15019501641"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-13001_result.xlsx
+++ b/tests/data/output/一级测试用例-13001_result.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"胥建平","id_card_no":"542222193608112706","phone":"13637057276"}</t>
+          <t>{"user_name":"石成","id_card_no":"45040519441224215X","phone":"13584903380"}</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"秋健","id_card_no":"341226193806045206","phone":"15072288580"}</t>
+          <t>{"user_name":"於玉兰","id_card_no":"441200199607126609","phone":"13975599064"}</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"宫凯","id_card_no":"120110193410201497","phone":"18211280399"}</t>
+          <t>{"user_name":"康文","id_card_no":"21011219680724280X","phone":"13209294248"}</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"朱峰","id_card_no":"220102193904297568","phone":"18118004719"}</t>
+          <t>{"user_name":"臧静","id_card_no":"450903194103142301","phone":"15657914693"}</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"韩军","id_card_no":"141182195108223623","phone":"13027108543"}</t>
+          <t>{"user_name":"齐敏","id_card_no":"120221194004249873","phone":"15185159923"}</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"常龙","id_card_no":"511922196704159964","phone":"18738859404"}</t>
+          <t>{"user_name":"毛柳","id_card_no":"21041119980811298X","phone":"15974692284"}</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"轩彬","id_card_no":"230781196902031903","phone":"13894935090"}</t>
+          <t>{"user_name":"申秀云","id_card_no":"441581194411048284","phone":"15787353330"}</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"裴博","id_card_no":"431024197309262871","phone":"18720669402"}</t>
+          <t>{"user_name":"鱼小红","id_card_no":"511802195309077410","phone":"13826488905"}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"武明","id_card_no":"341324193412157400","phone":"18997546483"}</t>
+          <t>{"user_name":"越春梅","id_card_no":"370684198112102192","phone":"13920613337"}</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"牟秀荣","id_card_no":"130702196203319423","phone":"15181917321"}</t>
+          <t>{"user_name":"子楠","id_card_no":"620521198605133959","phone":"18250137951"}</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"池金凤","id_card_no":"230706198402245322","phone":"14540644024"}</t>
+          <t>{"user_name":"阳俊","id_card_no":"370105197505154295","phone":"18762930550"}</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"宦英","id_card_no":"632822197109192521","phone":"15389902094"}</t>
+          <t>{"user_name":"滕冬梅","id_card_no":"231221199810064071","phone":"15048055722"}</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"史阳","id_card_no":"530901193203184050","phone":"15873213516"}</t>
+          <t>{"user_name":"武兰英","id_card_no":"542121196910269917","phone":"15845605404"}</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"项欣","id_card_no":"220282199809178493","phone":"15369455625"}</t>
+          <t>{"user_name":"松丹丹","id_card_no":"230621194303133819","phone":"15228691732"}</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"桑琳","id_card_no":"53011119960903477X","phone":"15888682433"}</t>
+          <t>{"user_name":"甫华","id_card_no":"522631196504042254","phone":"13946474497"}</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"蓬玉梅","id_card_no":"62122619331118245X","phone":"18509182294"}</t>
+          <t>{"user_name":"邴旭","id_card_no":"350105198212197719","phone":"15143067546"}</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"酆燕","id_card_no":"510301194807036487","phone":"18766548311"}</t>
+          <t>{"user_name":"官红霞","id_card_no":"621226199304088665","phone":"14783377770"}</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"容利","id_card_no":"15050219650506385X","phone":"13339224076"}</t>
+          <t>{"user_name":"叔柳","id_card_no":"530602196602136375","phone":"15572229709"}</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"隗春梅","id_card_no":"320000199801243260","phone":"14595536559"}</t>
+          <t>{"user_name":"景博","id_card_no":"62112419890316265X","phone":"18720509712"}</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"冯丹","id_card_no":"512000199808254445","phone":"13509582811"}</t>
+          <t>{"user_name":"游玉梅","id_card_no":"513337198402055265","phone":"13843050335"}</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"长桂花","id_card_no":"230713196711176142","phone":"18255129058"}</t>
+          <t>{"user_name":"孟浩","id_card_no":"469028196208243835","phone":"15157141518"}</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"红明","id_card_no":"230921194903182733","phone":"13937150443"}</t>
+          <t>{"user_name":"荀旭","id_card_no":"445101194511214032","phone":"18725835402"}</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"司建","id_card_no":"530721196108088755","phone":"13632591839"}</t>
+          <t>{"user_name":"侯想","id_card_no":"520524193010296321","phone":"18186089614"}</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"况凤英","id_card_no":"511502197705088130","phone":"13777525321"}</t>
+          <t>{"user_name":"闾欢","id_card_no":"421202195306148266","phone":"15714620163"}</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"景桂珍","id_card_no":"140521198701300433","phone":"13716995749"}</t>
+          <t>{"user_name":"伯雪","id_card_no":"440785197308088594","phone":"15373740616"}</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"毋志强","id_card_no":"350300194511094403","phone":"15201131215"}</t>
+          <t>{"user_name":"潘想","id_card_no":"440307195803288956","phone":"13240862013"}</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"赏丹丹","id_card_no":"410422195004240327","phone":"18583784372"}</t>
+          <t>{"user_name":"哈秀华","id_card_no":"350723199403107333","phone":"18282554358"}</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"拓玉梅","id_card_no":"640181198702032488","phone":"14707488223"}</t>
+          <t>{"user_name":"师雷","id_card_no":"340321194405089176","phone":"13950210606"}</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"易燕","id_card_no":"330683199112122119","phone":"13394514459"}</t>
+          <t>{"user_name":"钟俊","id_card_no":"331123196408077090","phone":"13417097604"}</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"伏岩","id_card_no":"130804199509081528","phone":"15972664680"}</t>
+          <t>{"user_name":"弘彬","id_card_no":"522626199312022745","phone":"15642131937"}</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"东鑫","id_card_no":"469029198004112628","phone":"18245770532"}</t>
+          <t>{"user_name":"徒鹏","id_card_no":"512000196107220230","phone":"13331296319"}</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"亢杰","id_card_no":"320829199406097909","phone":"15513257866"}</t>
+          <t>{"user_name":"万桂香","id_card_no":"61082419630123961X","phone":"13034126586"}</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"焦强","id_card_no":"520103195401161913","phone":"15019501641"}</t>
+          <t>{"user_name":"申坤","id_card_no":"500223193103075062","phone":"13327955338"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-13001_result.xlsx
+++ b/tests/data/output/一级测试用例-13001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,60 +369,55 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>用例编号</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>用例编号</t>
+          <t>测试模块</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>测试模块</t>
+          <t>用例标题</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>用例标题</t>
+          <t>table_main</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>table_main</t>
+          <t>table_main_subA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>table_main_subA</t>
+          <t>table_main_subB</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>table_main_subB</t>
+          <t>预期测试结果</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>预期测试结果</t>
+          <t>测试用例key</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>测试用例key</t>
+          <t>实际测试结果</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>实际测试结果</t>
+          <t>是否通过</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>是否通过</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>key_value_main</t>
         </is>
@@ -433,26 +428,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
         <v>63</v>
       </c>
-      <c r="D2" t="n">
-        <v>13001</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sms_reg_cnt</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -461,30 +455,24 @@
 info_sms_loan_platform.platform_code[1]="BANK"</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt=2</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sms_reg_cnt=2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{"user_name":"石成","id_card_no":"45040519441224215X","phone":"13584903380"}</t>
+          <t>{"user_name":"封帆","id_card_no":"211282197005030485","phone":"13566261917"}</t>
         </is>
       </c>
     </row>
@@ -493,51 +481,44 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>64</v>
       </c>
-      <c r="D3" t="n">
-        <v>13001</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>sms_reg_cnt</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve">info_sms.sms_id;
 info_sms.create_time="2019-07-02"
 </t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt=0</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sms_reg_cnt=0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{"user_name":"於玉兰","id_card_no":"441200199607126609","phone":"13975599064"}</t>
+          <t>{"user_name":"孔丹丹","id_card_no":"530422197110010425","phone":"18657299700"}</t>
         </is>
       </c>
     </row>
@@ -546,26 +527,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
         <v>65</v>
       </c>
-      <c r="D4" t="n">
-        <v>13001</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_bank_3m</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_bank_3m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -574,30 +554,24 @@
 info_sms_loan_platform.platform_type[1]="BANK"</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_bank_3m=1</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_bank_3m=1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>{"user_name":"康文","id_card_no":"21011219680724280X","phone":"13209294248"}</t>
+          <t>{"user_name":"粱鹏","id_card_no":"430408198409182217","phone":"13083790164"}</t>
         </is>
       </c>
     </row>
@@ -606,26 +580,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
         <v>66</v>
       </c>
-      <c r="D5" t="n">
-        <v>13001</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_bank_3m</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_bank_3m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -634,30 +607,24 @@
 info_sms_loan_platform.platform_type[1]="NON_BANK"</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_bank_3m=1</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_bank_3m=1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>{"user_name":"臧静","id_card_no":"450903194103142301","phone":"15657914693"}</t>
+          <t>{"user_name":"彭玉梅","id_card_no":"320202199410287745","phone":"15885562746"}</t>
         </is>
       </c>
     </row>
@@ -666,26 +633,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
         <v>67</v>
       </c>
-      <c r="D6" t="n">
-        <v>13001</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_other_3m</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_other_3m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -694,30 +660,24 @@
 info_sms_loan_platform.platform_type[1]="NON_BANK"</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_other_3m=1</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_other_3m=1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>{"user_name":"齐敏","id_card_no":"120221194004249873","phone":"15185159923"}</t>
+          <t>{"user_name":"宗敏","id_card_no":"13040019771112787X","phone":"13766217470"}</t>
         </is>
       </c>
     </row>
@@ -726,26 +686,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
         <v>68</v>
       </c>
-      <c r="D7" t="n">
-        <v>13001</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_other_3m</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_other_3m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -756,30 +715,24 @@
 info_sms_loan_platform.platform_type[2]="NON_BANK"</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>sms_reg_cnt_other_3m=2</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sms_reg_cnt_other_3m=2</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>{"user_name":"毛柳","id_card_no":"21041119980811298X","phone":"15974692284"}</t>
+          <t>{"user_name":"沙宇","id_card_no":"330100192911268050","phone":"18848628629"}</t>
         </is>
       </c>
     </row>
@@ -788,55 +741,48 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
         <v>69</v>
       </c>
-      <c r="D8" t="n">
-        <v>13001</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>sms_app_cnt</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sms_app_cnt</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t>info_sms_loan_apply.sms_id;
 info_sms_loan_apply.apply_amount[0]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>sms_app_cnt=1</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sms_app_cnt=1</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>{"user_name":"申秀云","id_card_no":"441581194411048284","phone":"15787353330"}</t>
+          <t>{"user_name":"栾成","id_card_no":"371423196707031643","phone":"13339490795"}</t>
         </is>
       </c>
     </row>
@@ -845,50 +791,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
         <v>70</v>
       </c>
-      <c r="D9" t="n">
-        <v>13001</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sms_app_cnt</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sms_app_cnt</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>sms_app_cnt=0</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sms_app_cnt=0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>{"user_name":"鱼小红","id_card_no":"511802195309077410","phone":"13826488905"}</t>
+          <t>{"user_name":"桂丽华","id_card_no":"371200198304248075","phone":"13012573578"}</t>
         </is>
       </c>
     </row>
@@ -897,26 +836,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
         <v>71</v>
       </c>
-      <c r="D10" t="n">
-        <v>13001</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>sms_max_apply</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sms_max_apply</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
         <is>
           <t>info_sms_loan_apply.sms_id;
 info_sms_loan_apply.apply_amount[0]="0W～0.2W";
@@ -924,30 +862,24 @@
 info_sms_loan_apply.apply_amount[2]="1W～3W"</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>sms_max_apply=4</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sms_max_apply=4</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>4</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>{"user_name":"越春梅","id_card_no":"370684198112102192","phone":"13920613337"}</t>
+          <t>{"user_name":"何浩","id_card_no":"532800195111240528","phone":"14582522820"}</t>
         </is>
       </c>
     </row>
@@ -956,26 +888,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
         <v>72</v>
       </c>
-      <c r="D11" t="n">
-        <v>13001</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>sms_max_apply</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sms_max_apply</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
         <is>
           <t>info_sms_loan_apply.sms_id;
 info_sms_loan_apply.apply_amount[0]="1W～3W";
@@ -983,30 +914,24 @@
 info_sms_loan_apply.apply_amount[2]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>sms_max_apply=6</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sms_max_apply=6</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>6</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>{"user_name":"子楠","id_card_no":"620521198605133959","phone":"18250137951"}</t>
+          <t>{"user_name":"宁秀梅","id_card_no":"211001197802143889","phone":"13237685497"}</t>
         </is>
       </c>
     </row>
@@ -1015,55 +940,48 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
         <v>73</v>
       </c>
-      <c r="D12" t="n">
-        <v>13001</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>sms_loan_cnt</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sms_loan_cnt</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t>info_sms_loan.sms_id;
 info_sms_loan.loan_amount[0]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>sms_loan_cnt=1</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sms_loan_cnt=1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>{"user_name":"阳俊","id_card_no":"370105197505154295","phone":"18762930550"}</t>
+          <t>{"user_name":"闫玲","id_card_no":"320924197104080620","phone":"14756768865"}</t>
         </is>
       </c>
     </row>
@@ -1072,50 +990,43 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
         <v>74</v>
       </c>
-      <c r="D13" t="n">
-        <v>13001</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>sms_loan_cnt</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sms_loan_cnt</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>sms_loan_cnt=0</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sms_loan_cnt=0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>{"user_name":"滕冬梅","id_card_no":"231221199810064071","phone":"15048055722"}</t>
+          <t>{"user_name":"贺兰英","id_card_no":"540230199901171276","phone":"14564232874"}</t>
         </is>
       </c>
     </row>
@@ -1124,26 +1035,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
         <v>75</v>
       </c>
-      <c r="D14" t="n">
-        <v>13001</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>sms_max_loan</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sms_max_loan</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
         <is>
           <t>info_sms_loan.sms_id;
 info_sms_loan.loan_amount[0]="0W～0.2W";
@@ -1151,30 +1061,24 @@
 info_sms_loan.loan_amount[2]="5W～10W"</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>sms_max_loan=6</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sms_max_loan=6</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
-        <v>6</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>{"user_name":"武兰英","id_card_no":"542121196910269917","phone":"15845605404"}</t>
+          <t>{"user_name":"纪俊","id_card_no":"621027195102277238","phone":"18515524920"}</t>
         </is>
       </c>
     </row>
@@ -1183,26 +1087,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
         <v>76</v>
       </c>
-      <c r="D15" t="n">
-        <v>13001</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>sms_max_loan</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>sms_max_loan</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
         <is>
           <t>info_sms_loan.sms_id;
 info_sms_loan.loan_amount[0]="3W～5W";
@@ -1210,30 +1113,24 @@
 info_sms_loan.loan_amount[2]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>sms_max_loan=5</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sms_max_loan=5</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>5</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>{"user_name":"松丹丹","id_card_no":"230621194303133819","phone":"15228691732"}</t>
+          <t>{"user_name":"慕成","id_card_no":"530501197109152489","phone":"15122796819"}</t>
         </is>
       </c>
     </row>
@@ -1242,56 +1139,49 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
         <v>77</v>
       </c>
-      <c r="D16" t="n">
-        <v>13001</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>sms_reject_cnt</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sms_reject_cnt</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
         <is>
           <t>info_sms_loan_reject.sms_id;
 info_sms_loan_reject.platform_type[0]="";
 info_sms_loan_reject.platform_type[1]=""</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>sms_reject_cnt=2</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sms_reject_cnt=2</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>{"user_name":"甫华","id_card_no":"522631196504042254","phone":"13946474497"}</t>
+          <t>{"user_name":"耿畅","id_card_no":"431223194906187866","phone":"18133356623"}</t>
         </is>
       </c>
     </row>
@@ -1300,50 +1190,43 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
         <v>78</v>
       </c>
-      <c r="D17" t="n">
-        <v>13001</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>sms_reject_cnt</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sms_reject_cnt</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>sms_reject_cnt=0</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sms_reject_cnt=0</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>{"user_name":"邴旭","id_card_no":"350105198212197719","phone":"15143067546"}</t>
+          <t>{"user_name":"步旭","id_card_no":"130824197904143158","phone":"15854038597"}</t>
         </is>
       </c>
     </row>
@@ -1352,56 +1235,49 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
         <v>79</v>
       </c>
-      <c r="D18" t="n">
-        <v>13001</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>sms_overdue_cnt</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sms_overdue_cnt</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.platform_code[0]="";
 info_sms_overdue_platform.platform_code[1]=""</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>sms_overdue_cnt=2</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sms_overdue_cnt=2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>2</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>{"user_name":"官红霞","id_card_no":"621226199304088665","phone":"14783377770"}</t>
+          <t>{"user_name":"金雷","id_card_no":"370302198308252511","phone":"13582436098"}</t>
         </is>
       </c>
     </row>
@@ -1410,50 +1286,43 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
         <v>80</v>
       </c>
-      <c r="D19" t="n">
-        <v>13001</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>sms_overdue_cnt</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sms_overdue_cnt</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>sms_overdue_cnt=0</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sms_overdue_cnt=0</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>{"user_name":"叔柳","id_card_no":"530602196602136375","phone":"15572229709"}</t>
+          <t>{"user_name":"尉玲","id_card_no":"632522195706253091","phone":"18879115957"}</t>
         </is>
       </c>
     </row>
@@ -1462,56 +1331,49 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
         <v>81</v>
       </c>
-      <c r="D20" t="n">
-        <v>13001</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>sms_max_overdue</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sms_max_overdue</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_money[0]="0W～0.2W";
 info_sms_overdue_platform.overdue_money[1]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>sms_max_overdue=1</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sms_max_overdue=1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>{"user_name":"景博","id_card_no":"62112419890316265X","phone":"18720509712"}</t>
+          <t>{"user_name":"卞丹丹","id_card_no":"141029193909082035","phone":"18999261725"}</t>
         </is>
       </c>
     </row>
@@ -1520,50 +1382,43 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
         <v>82</v>
       </c>
-      <c r="D21" t="n">
-        <v>13001</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sms_max_overdue</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sms_max_overdue</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>sms_max_overdue=0</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sms_max_overdue=0</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>{"user_name":"游玉梅","id_card_no":"513337198402055265","phone":"13843050335"}</t>
+          <t>{"user_name":"广亮","id_card_no":"450521198003114353","phone":"18216249713"}</t>
         </is>
       </c>
     </row>
@@ -1572,56 +1427,49 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
         <v>83</v>
       </c>
-      <c r="D22" t="n">
-        <v>13001</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sms_owe_cnt</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="";
 info_sms_debt.platform_code[1]=""</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt=2</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sms_owe_cnt=2</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>2</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>{"user_name":"孟浩","id_card_no":"469028196208243835","phone":"15157141518"}</t>
+          <t>{"user_name":"商洁","id_card_no":"420607194007142030","phone":"18117185311"}</t>
         </is>
       </c>
     </row>
@@ -1630,50 +1478,43 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
         <v>84</v>
       </c>
-      <c r="D23" t="n">
-        <v>13001</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sms_owe_cnt</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt=0</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sms_owe_cnt=0</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>{"user_name":"荀旭","id_card_no":"445101194511214032","phone":"18725835402"}</t>
+          <t>{"user_name":"葛秀兰","id_card_no":"310117194405114887","phone":"14764391043"}</t>
         </is>
       </c>
     </row>
@@ -1682,56 +1523,49 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
         <v>85</v>
       </c>
-      <c r="D24" t="n">
-        <v>13001</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>sms_max_owe</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sms_max_owe</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.debt_money[0]="3W～5W";
 info_sms_debt.debt_money[1]="10W以上"</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>sms_max_owe=7</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sms_max_owe=7</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>7</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>{"user_name":"侯想","id_card_no":"520524193010296321","phone":"18186089614"}</t>
+          <t>{"user_name":"申玉","id_card_no":"610925197106232400","phone":"15500612209"}</t>
         </is>
       </c>
     </row>
@@ -1740,50 +1574,43 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
         <v>86</v>
       </c>
-      <c r="D25" t="n">
-        <v>13001</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>sms_max_owe</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sms_max_owe</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>sms_max_owe=0</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sms_max_owe=0</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>{"user_name":"闾欢","id_card_no":"421202195306148266","phone":"15714620163"}</t>
+          <t>{"user_name":"鲍秀芳","id_card_no":"653023193704249405","phone":"13258121743"}</t>
         </is>
       </c>
     </row>
@@ -1792,61 +1619,54 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
         <v>87</v>
       </c>
-      <c r="D26" t="n">
-        <v>13001</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6m</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2019-05-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6m=1</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6m=1</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>{"user_name":"伯雪","id_card_no":"440785197308088594","phone":"15373740616"}</t>
+          <t>{"user_name":"慎丽华","id_card_no":"430408197405088763","phone":"18851462165"}</t>
         </is>
       </c>
     </row>
@@ -1855,61 +1675,54 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
         <v>88</v>
       </c>
-      <c r="D27" t="n">
-        <v>13001</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6m</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6m=0</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6m=0</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>{"user_name":"潘想","id_card_no":"440307195803288956","phone":"13240862013"}</t>
+          <t>{"user_name":"鲍敏","id_card_no":"53032219730106173X","phone":"18046704267"}</t>
         </is>
       </c>
     </row>
@@ -1918,56 +1731,49 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="n">
         <v>89</v>
       </c>
-      <c r="D28" t="n">
-        <v>13001</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6m</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6m=0</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6m=0</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>{"user_name":"哈秀华","id_card_no":"350723199403107333","phone":"18282554358"}</t>
+          <t>{"user_name":"刁欣","id_card_no":"522625197004293062","phone":"14573648403"}</t>
         </is>
       </c>
     </row>
@@ -1976,61 +1782,54 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="n">
         <v>90</v>
       </c>
-      <c r="D29" t="n">
-        <v>13001</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6_12m</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6_12m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2019-05-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6_12m=0</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6_12m=0</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>{"user_name":"师雷","id_card_no":"340321194405089176","phone":"13950210606"}</t>
+          <t>{"user_name":"厍玲","id_card_no":"230708195403226763","phone":"18525355845"}</t>
         </is>
       </c>
     </row>
@@ -2039,61 +1838,54 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
         <v>91</v>
       </c>
-      <c r="D30" t="n">
-        <v>13001</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6_12m</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6_12m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6_12m=1</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6_12m=1</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>{"user_name":"钟俊","id_card_no":"331123196408077090","phone":"13417097604"}</t>
+          <t>{"user_name":"邵涛","id_card_no":"140581195312192611","phone":"18999788729"}</t>
         </is>
       </c>
     </row>
@@ -2102,56 +1894,49 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
-      </c>
-      <c r="C31" t="n">
         <v>92</v>
       </c>
-      <c r="D31" t="n">
-        <v>13001</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6_12m</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6_12m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>sms_owe_cnt_6_12m=0</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sms_owe_cnt_6_12m=0</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>{"user_name":"弘彬","id_card_no":"522626199312022745","phone":"15642131937"}</t>
+          <t>{"user_name":"隗芳","id_card_no":"37052219380704506X","phone":"15371168808"}</t>
         </is>
       </c>
     </row>
@@ -2160,62 +1945,55 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C32" t="n">
         <v>93</v>
       </c>
-      <c r="D32" t="n">
-        <v>13001</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>sms_max_owe_6m</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sms_max_owe_6m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2019-05-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201";
 info_sms_debt.debt_money[0]="1W～3W"</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>sms_max_owe_6m=4</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sms_max_owe_6m=4</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>4</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>{"user_name":"徒鹏","id_card_no":"512000196107220230","phone":"13331296319"}</t>
+          <t>{"user_name":"亓建","id_card_no":"53230119990612574X","phone":"18603650081"}</t>
         </is>
       </c>
     </row>
@@ -2224,62 +2002,55 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>31</v>
-      </c>
-      <c r="C33" t="n">
         <v>94</v>
       </c>
-      <c r="D33" t="n">
-        <v>13001</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>sms_max_owe_6m</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sms_max_owe_6m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201";
 info_sms_debt.debt_money[0]="1W～3W"</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>sms_max_owe_6m=0</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sms_max_owe_6m=0</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>{"user_name":"万桂香","id_card_no":"61082419630123961X","phone":"13034126586"}</t>
+          <t>{"user_name":"卞亮","id_card_no":"110102199401119024","phone":"14731956730"}</t>
         </is>
       </c>
     </row>
@@ -2288,56 +2059,49 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>32</v>
-      </c>
-      <c r="C34" t="n">
         <v>95</v>
       </c>
-      <c r="D34" t="n">
-        <v>13001</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>13001</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>sms_max_owe_6m</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sms_max_owe_6m</t>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>sms_max_owe_6m=0</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sms_max_owe_6m=0</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>{"user_name":"申坤","id_card_no":"500223193103075062","phone":"13327955338"}</t>
+          <t>{"user_name":"暨瑜","id_card_no":"500113195607243489","phone":"13281377145"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-13001_result.xlsx
+++ b/tests/data/output/一级测试用例-13001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,55 +369,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>用例编号</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>测试模块</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>用例标题</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>table_main</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>table_main_subA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>table_main_subB</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>预期测试结果</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>测试用例key</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>实际测试结果</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>是否通过</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>key_value_main</t>
         </is>
@@ -428,25 +433,26 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>63</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>sms_reg_cnt</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -455,24 +461,30 @@
 info_sms_loan_platform.platform_code[1]="BANK"</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>sms_reg_cnt=2</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"封帆","id_card_no":"211282197005030485","phone":"13566261917"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>{"user_name":"拓杰","id_card_no":"131100197208178295","phone":"18131037978"}</t>
         </is>
       </c>
     </row>
@@ -481,44 +493,51 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>64</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>sms_reg_cnt</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve">info_sms.sms_id;
 info_sms.create_time="2019-07-02"
 </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>sms_reg_cnt=0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"孔丹丹","id_card_no":"530422197110010425","phone":"18657299700"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{"user_name":"单丹丹","id_card_no":"230901197312289676","phone":"15127270984"}</t>
         </is>
       </c>
     </row>
@@ -527,25 +546,26 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>65</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>sms_reg_cnt_bank_3m</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -554,24 +574,30 @@
 info_sms_loan_platform.platform_type[1]="BANK"</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
         <is>
           <t>sms_reg_cnt_bank_3m=1</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{"user_name":"粱鹏","id_card_no":"430408198409182217","phone":"13083790164"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>{"user_name":"门霞","id_card_no":"150826193510104920","phone":"13983676357"}</t>
         </is>
       </c>
     </row>
@@ -580,25 +606,26 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
         <v>66</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>sms_reg_cnt_bank_3m</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -607,24 +634,30 @@
 info_sms_loan_platform.platform_type[1]="NON_BANK"</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
         <is>
           <t>sms_reg_cnt_bank_3m=1</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{"user_name":"彭玉梅","id_card_no":"320202199410287745","phone":"15885562746"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>{"user_name":"白雷","id_card_no":"620121197103171270","phone":"13917808285"}</t>
         </is>
       </c>
     </row>
@@ -633,25 +666,26 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>67</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>sms_reg_cnt_other_3m</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -660,24 +694,30 @@
 info_sms_loan_platform.platform_type[1]="NON_BANK"</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>sms_reg_cnt_other_3m=1</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{"user_name":"宗敏","id_card_no":"13040019771112787X","phone":"13766217470"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>{"user_name":"高志强","id_card_no":"652901193402168220","phone":"14779088849"}</t>
         </is>
       </c>
     </row>
@@ -686,25 +726,26 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>68</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>sms_reg_cnt_other_3m</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>info_sms_loan_platform.sms_id;
 info_sms_loan_platform.register_time[0]="2019-06-03";
@@ -715,24 +756,30 @@
 info_sms_loan_platform.platform_type[2]="NON_BANK"</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>sms_reg_cnt_other_3m=2</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{"user_name":"沙宇","id_card_no":"330100192911268050","phone":"18848628629"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>{"user_name":"尤辉","id_card_no":"610404194610177292","phone":"18254710581"}</t>
         </is>
       </c>
     </row>
@@ -741,48 +788,55 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
         <v>69</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>sms_app_cnt</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>info_sms_loan_apply.sms_id;
 info_sms_loan_apply.apply_amount[0]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
         <is>
           <t>sms_app_cnt=1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{"user_name":"栾成","id_card_no":"371423196707031643","phone":"13339490795"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>{"user_name":"诸佳","id_card_no":"331181194707252842","phone":"18784159829"}</t>
         </is>
       </c>
     </row>
@@ -791,43 +845,50 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
         <v>70</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>sms_app_cnt</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>sms_app_cnt=0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{"user_name":"桂丽华","id_card_no":"371200198304248075","phone":"13012573578"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>{"user_name":"黄凤英","id_card_no":"350802194002195636","phone":"15862321174"}</t>
         </is>
       </c>
     </row>
@@ -836,25 +897,26 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
         <v>71</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>sms_max_apply</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>info_sms_loan_apply.sms_id;
 info_sms_loan_apply.apply_amount[0]="0W～0.2W";
@@ -862,24 +924,30 @@
 info_sms_loan_apply.apply_amount[2]="1W～3W"</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>sms_max_apply=4</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{"user_name":"何浩","id_card_no":"532800195111240528","phone":"14582522820"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>{"user_name":"广峰","id_card_no":"360123199909108738","phone":"18032951463"}</t>
         </is>
       </c>
     </row>
@@ -888,25 +956,26 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
         <v>72</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>sms_max_apply</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>info_sms_loan_apply.sms_id;
 info_sms_loan_apply.apply_amount[0]="1W～3W";
@@ -914,24 +983,30 @@
 info_sms_loan_apply.apply_amount[2]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>sms_max_apply=6</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>6</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{"user_name":"宁秀梅","id_card_no":"211001197802143889","phone":"13237685497"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>{"user_name":"晋璐","id_card_no":"430407199809064357","phone":"18022856356"}</t>
         </is>
       </c>
     </row>
@@ -940,48 +1015,55 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
         <v>73</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>sms_loan_cnt</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>info_sms_loan.sms_id;
 info_sms_loan.loan_amount[0]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>sms_loan_cnt=1</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{"user_name":"闫玲","id_card_no":"320924197104080620","phone":"14756768865"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>{"user_name":"岑秀梅","id_card_no":"441302197102194031","phone":"14533303987"}</t>
         </is>
       </c>
     </row>
@@ -990,43 +1072,50 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
         <v>74</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>sms_loan_cnt</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>sms_loan_cnt=0</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{"user_name":"贺兰英","id_card_no":"540230199901171276","phone":"14564232874"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>{"user_name":"舒玉珍","id_card_no":"120112199707247875","phone":"18593868944"}</t>
         </is>
       </c>
     </row>
@@ -1035,25 +1124,26 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
         <v>75</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>sms_max_loan</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>info_sms_loan.sms_id;
 info_sms_loan.loan_amount[0]="0W～0.2W";
@@ -1061,24 +1151,30 @@
 info_sms_loan.loan_amount[2]="5W～10W"</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
         <is>
           <t>sms_max_loan=6</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{"user_name":"纪俊","id_card_no":"621027195102277238","phone":"18515524920"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>{"user_name":"曹雷","id_card_no":"350881193708239507","phone":"13786666193"}</t>
         </is>
       </c>
     </row>
@@ -1087,25 +1183,26 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
         <v>76</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>sms_max_loan</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>info_sms_loan.sms_id;
 info_sms_loan.loan_amount[0]="3W～5W";
@@ -1113,24 +1210,30 @@
 info_sms_loan.loan_amount[2]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t>sms_max_loan=5</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>5</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{"user_name":"慕成","id_card_no":"530501197109152489","phone":"15122796819"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>{"user_name":"弘丽丽","id_card_no":"32032219911216801X","phone":"13322561802"}</t>
         </is>
       </c>
     </row>
@@ -1139,49 +1242,56 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
         <v>77</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>sms_reject_cnt</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>info_sms_loan_reject.sms_id;
 info_sms_loan_reject.platform_type[0]="";
 info_sms_loan_reject.platform_type[1]=""</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>sms_reject_cnt=2</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{"user_name":"耿畅","id_card_no":"431223194906187866","phone":"18133356623"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>{"user_name":"浦秀兰","id_card_no":"140723194110236682","phone":"13212966691"}</t>
         </is>
       </c>
     </row>
@@ -1190,43 +1300,50 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
         <v>78</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>sms_reject_cnt</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
         <is>
           <t>sms_reject_cnt=0</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{"user_name":"步旭","id_card_no":"130824197904143158","phone":"15854038597"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>{"user_name":"常阳","id_card_no":"230229199905258549","phone":"18242930022"}</t>
         </is>
       </c>
     </row>
@@ -1235,49 +1352,56 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
         <v>79</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>sms_overdue_cnt</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.platform_code[0]="";
 info_sms_overdue_platform.platform_code[1]=""</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
         <is>
           <t>sms_overdue_cnt=2</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>{"user_name":"金雷","id_card_no":"370302198308252511","phone":"13582436098"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>{"user_name":"于博","id_card_no":"440607198803022429","phone":"13470090516"}</t>
         </is>
       </c>
     </row>
@@ -1286,43 +1410,50 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
         <v>80</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>sms_overdue_cnt</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
         <is>
           <t>sms_overdue_cnt=0</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{"user_name":"尉玲","id_card_no":"632522195706253091","phone":"18879115957"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>{"user_name":"满俊","id_card_no":"652924193708028559","phone":"18265886136"}</t>
         </is>
       </c>
     </row>
@@ -1331,49 +1462,56 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
         <v>81</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>sms_max_overdue</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_money[0]="0W～0.2W";
 info_sms_overdue_platform.overdue_money[1]="0W～0.2W"</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
         <is>
           <t>sms_max_overdue=1</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{"user_name":"卞丹丹","id_card_no":"141029193909082035","phone":"18999261725"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>{"user_name":"刁小红","id_card_no":"542625197403231268","phone":"18795613976"}</t>
         </is>
       </c>
     </row>
@@ -1382,43 +1520,50 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
         <v>82</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>sms_max_overdue</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>sms_max_overdue=0</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{"user_name":"广亮","id_card_no":"450521198003114353","phone":"18216249713"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>{"user_name":"归志强","id_card_no":"150701195304293130","phone":"15810868627"}</t>
         </is>
       </c>
     </row>
@@ -1427,49 +1572,56 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
         <v>83</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>sms_owe_cnt</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="";
 info_sms_debt.platform_code[1]=""</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>sms_owe_cnt=2</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{"user_name":"商洁","id_card_no":"420607194007142030","phone":"18117185311"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>{"user_name":"齐彬","id_card_no":"41140319690928358X","phone":"15926069889"}</t>
         </is>
       </c>
     </row>
@@ -1478,43 +1630,50 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
         <v>84</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>sms_owe_cnt</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
         <is>
           <t>sms_owe_cnt=0</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{"user_name":"葛秀兰","id_card_no":"310117194405114887","phone":"14764391043"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>{"user_name":"陈柳","id_card_no":"360926193004066401","phone":"14790682908"}</t>
         </is>
       </c>
     </row>
@@ -1523,49 +1682,56 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
         <v>85</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>sms_max_owe</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.debt_money[0]="3W～5W";
 info_sms_debt.debt_money[1]="10W以上"</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>sms_max_owe=7</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>7</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>{"user_name":"申玉","id_card_no":"610925197106232400","phone":"15500612209"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>{"user_name":"霍辉","id_card_no":"420600194811179841","phone":"13332832220"}</t>
         </is>
       </c>
     </row>
@@ -1574,43 +1740,50 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
         <v>86</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>sms_max_owe</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
         <is>
           <t>sms_max_owe=0</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{"user_name":"鲍秀芳","id_card_no":"653023193704249405","phone":"13258121743"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>{"user_name":"粱鹏","id_card_no":"130125198203188428","phone":"15194258133"}</t>
         </is>
       </c>
     </row>
@@ -1619,54 +1792,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
         <v>87</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6m</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2019-05-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6m=1</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{"user_name":"慎丽华","id_card_no":"430408197405088763","phone":"18851462165"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>{"user_name":"滕雪梅","id_card_no":"450512195006162297","phone":"18505229600"}</t>
         </is>
       </c>
     </row>
@@ -1675,54 +1855,61 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
         <v>88</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6m</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6m=0</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>{"user_name":"鲍敏","id_card_no":"53032219730106173X","phone":"18046704267"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>{"user_name":"嵇佳","id_card_no":"360430195410244636","phone":"15012478102"}</t>
         </is>
       </c>
     </row>
@@ -1731,49 +1918,56 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
         <v>89</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6m</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6m=0</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{"user_name":"刁欣","id_card_no":"522625197004293062","phone":"14573648403"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>{"user_name":"水东","id_card_no":"42130119920612474X","phone":"18011541781"}</t>
         </is>
       </c>
     </row>
@@ -1782,54 +1976,61 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
         <v>90</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6_12m</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2019-05-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6_12m=0</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>{"user_name":"厍玲","id_card_no":"230708195403226763","phone":"18525355845"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>{"user_name":"贝娜","id_card_no":"640303196104057100","phone":"13758967302"}</t>
         </is>
       </c>
     </row>
@@ -1838,54 +2039,61 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
         <v>91</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6_12m</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6_12m=1</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{"user_name":"邵涛","id_card_no":"140581195312192611","phone":"18999788729"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>{"user_name":"田红梅","id_card_no":"140802193101304718","phone":"13546668470"}</t>
         </is>
       </c>
     </row>
@@ -1894,49 +2102,56 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
         <v>92</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6_12m</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
         <is>
           <t>sms_owe_cnt_6_12m=0</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>{"user_name":"隗芳","id_card_no":"37052219380704506X","phone":"15371168808"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>{"user_name":"父雷","id_card_no":"35050419820305624X","phone":"13175661629"}</t>
         </is>
       </c>
     </row>
@@ -1945,55 +2160,62 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
         <v>93</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>sms_max_owe_6m</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2019-05-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201";
 info_sms_debt.debt_money[0]="1W～3W"</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>sms_max_owe_6m=4</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>{"user_name":"亓建","id_card_no":"53230119990612574X","phone":"18603650081"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>{"user_name":"裘秀华","id_card_no":"230882194003192634","phone":"18178890206"}</t>
         </is>
       </c>
     </row>
@@ -2002,55 +2224,62 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
         <v>94</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>sms_max_owe_6m</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>info_sms_debt.sms_id;
 info_sms_debt.platform_code[0]="EM_0000207201";
 info_sms_debt.debt_money[0]="1W～3W"</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>sms_max_owe_6m=0</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>{"user_name":"卞亮","id_card_no":"110102199401119024","phone":"14731956730"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>{"user_name":"壤琳","id_card_no":"370800199708215647","phone":"15985881855"}</t>
         </is>
       </c>
     </row>
@@ -2059,49 +2288,56 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
         <v>95</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>13001</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" t="n">
+        <v>13001</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>sms_max_owe_6m</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>info_sms.sms_id;
-info_sms.create_time="2019-07-02"</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
+        <is>
+          <t>info_sms.sms_id;
+info_sms.create_time="2019-07-02"</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>info_sms_overdue_platform.sms_id;
 info_sms_overdue_platform.overdue_time[0]="2018-11-03";
 info_sms_overdue_platform.platform_code[0]="EM_0000207201"</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
         <is>
           <t>sms_max_owe_6m=0</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>user_name;
+id_card_no;
+phone</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>{"user_name":"暨瑜","id_card_no":"500113195607243489","phone":"13281377145"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>{"user_name":"木玉珍","id_card_no":"510722197507237081","phone":"13123681658"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-13001_result.xlsx
+++ b/tests/data/output/一级测试用例-13001_result.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"拓杰","id_card_no":"131100197208178295","phone":"18131037978"}</t>
+          <t>{"user_name":"良秀珍","id_card_no":"140581194305214478","phone":"13797544128"}</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"单丹丹","id_card_no":"230901197312289676","phone":"15127270984"}</t>
+          <t>{"user_name":"宋建平","id_card_no":"360100194004041359","phone":"15979245322"}</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"门霞","id_card_no":"150826193510104920","phone":"13983676357"}</t>
+          <t>{"user_name":"舒刚","id_card_no":"654202195207292110","phone":"15543595754"}</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"白雷","id_card_no":"620121197103171270","phone":"13917808285"}</t>
+          <t>{"user_name":"巴建平","id_card_no":"361026199407084187","phone":"13748606265"}</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"高志强","id_card_no":"652901193402168220","phone":"14779088849"}</t>
+          <t>{"user_name":"沃秀云","id_card_no":"211302197501140193","phone":"13048842360"}</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"尤辉","id_card_no":"610404194610177292","phone":"18254710581"}</t>
+          <t>{"user_name":"浦凯","id_card_no":"430524193304299681","phone":"15801929634"}</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{"user_name":"诸佳","id_card_no":"331181194707252842","phone":"18784159829"}</t>
+          <t>{"user_name":"徒强","id_card_no":"500105200102109480","phone":"15086936529"}</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{"user_name":"黄凤英","id_card_no":"350802194002195636","phone":"15862321174"}</t>
+          <t>{"user_name":"纪坤","id_card_no":"620400196308235354","phone":"13835876356"}</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{"user_name":"广峰","id_card_no":"360123199909108738","phone":"18032951463"}</t>
+          <t>{"user_name":"章瑜","id_card_no":"451300193907187753","phone":"13477790607"}</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{"user_name":"晋璐","id_card_no":"430407199809064357","phone":"18022856356"}</t>
+          <t>{"user_name":"谷欣","id_card_no":"510105195812204755","phone":"13972235462"}</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{"user_name":"岑秀梅","id_card_no":"441302197102194031","phone":"14533303987"}</t>
+          <t>{"user_name":"隗建","id_card_no":"540101197802079662","phone":"15023208591"}</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>{"user_name":"舒玉珍","id_card_no":"120112199707247875","phone":"18593868944"}</t>
+          <t>{"user_name":"茹颖","id_card_no":"22240519740222513X","phone":"15764176478"}</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{"user_name":"曹雷","id_card_no":"350881193708239507","phone":"13786666193"}</t>
+          <t>{"user_name":"裘志强","id_card_no":"621126199404118790","phone":"18054745612"}</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>{"user_name":"弘丽丽","id_card_no":"32032219911216801X","phone":"13322561802"}</t>
+          <t>{"user_name":"班秀云","id_card_no":"130429195409022579","phone":"13257968082"}</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{"user_name":"浦秀兰","id_card_no":"140723194110236682","phone":"13212966691"}</t>
+          <t>{"user_name":"仰淑兰","id_card_no":"450324197904042792","phone":"13134456331"}</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{"user_name":"常阳","id_card_no":"230229199905258549","phone":"18242930022"}</t>
+          <t>{"user_name":"吉艳","id_card_no":"210802196508274356","phone":"18643786173"}</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{"user_name":"于博","id_card_no":"440607198803022429","phone":"13470090516"}</t>
+          <t>{"user_name":"蓟玉梅","id_card_no":"53252519501015236X","phone":"14563438516"}</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{"user_name":"满俊","id_card_no":"652924193708028559","phone":"18265886136"}</t>
+          <t>{"user_name":"郭玲","id_card_no":"141100198702216070","phone":"14539889180"}</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{"user_name":"刁小红","id_card_no":"542625197403231268","phone":"18795613976"}</t>
+          <t>{"user_name":"郁丽娟","id_card_no":"520302197612074880","phone":"13219325588"}</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>{"user_name":"归志强","id_card_no":"150701195304293130","phone":"15810868627"}</t>
+          <t>{"user_name":"燕丽娟","id_card_no":"211001198803227835","phone":"18712320502"}</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{"user_name":"齐彬","id_card_no":"41140319690928358X","phone":"15926069889"}</t>
+          <t>{"user_name":"马秀珍","id_card_no":"210782194007201869","phone":"15710564766"}</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{"user_name":"陈柳","id_card_no":"360926193004066401","phone":"14790682908"}</t>
+          <t>{"user_name":"沃平","id_card_no":"450324194110051431","phone":"13650876158"}</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{"user_name":"霍辉","id_card_no":"420600194811179841","phone":"13332832220"}</t>
+          <t>{"user_name":"宓健","id_card_no":"469030196501144563","phone":"13475874119"}</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{"user_name":"粱鹏","id_card_no":"130125198203188428","phone":"15194258133"}</t>
+          <t>{"user_name":"何秀英","id_card_no":"520111197605103749","phone":"15210903482"}</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{"user_name":"滕雪梅","id_card_no":"450512195006162297","phone":"18505229600"}</t>
+          <t>{"user_name":"党云","id_card_no":"451026195401253377","phone":"18555656230"}</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{"user_name":"嵇佳","id_card_no":"360430195410244636","phone":"15012478102"}</t>
+          <t>{"user_name":"焦颖","id_card_no":"411622195803164131","phone":"18126806286"}</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>{"user_name":"水东","id_card_no":"42130119920612474X","phone":"18011541781"}</t>
+          <t>{"user_name":"宗凯","id_card_no":"130223193201105756","phone":"13572933482"}</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>{"user_name":"贝娜","id_card_no":"640303196104057100","phone":"13758967302"}</t>
+          <t>{"user_name":"段林","id_card_no":"210122195708310465","phone":"14534889645"}</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{"user_name":"田红梅","id_card_no":"140802193101304718","phone":"13546668470"}</t>
+          <t>{"user_name":"慕红梅","id_card_no":"451030196102046844","phone":"18254687813"}</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{"user_name":"父雷","id_card_no":"35050419820305624X","phone":"13175661629"}</t>
+          <t>{"user_name":"时波","id_card_no":"510724193107172949","phone":"15516317697"}</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{"user_name":"裘秀华","id_card_no":"230882194003192634","phone":"18178890206"}</t>
+          <t>{"user_name":"靳旭","id_card_no":"440800195303302451","phone":"13443292609"}</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{"user_name":"壤琳","id_card_no":"370800199708215647","phone":"15985881855"}</t>
+          <t>{"user_name":"赏玉","id_card_no":"654202198601109111","phone":"15874811580"}</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{"user_name":"木玉珍","id_card_no":"510722197507237081","phone":"13123681658"}</t>
+          <t>{"user_name":"人淑华","id_card_no":"130684198404144832","phone":"13568930268"}</t>
         </is>
       </c>
     </row>
